--- a/banco_intencao.xlsx
+++ b/banco_intencao.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="32">
   <si>
     <t xml:space="preserve">candidato</t>
   </si>
@@ -73,46 +73,37 @@
     <t xml:space="preserve">Não sabe/Não respondeu</t>
   </si>
   <si>
-    <t xml:space="preserve">28.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9</t>
+    <t xml:space="preserve">23.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7</t>
   </si>
   <si>
     <t xml:space="preserve">0.4</t>
   </si>
   <si>
+    <t xml:space="preserve">0.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1</t>
+  </si>
+  <si>
     <t xml:space="preserve">3.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1</t>
   </si>
   <si>
     <t xml:space="preserve">0.2</t>
@@ -140,6 +131,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -161,17 +153,20 @@
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -254,13 +249,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.34"/>
   </cols>
@@ -466,13 +461,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="4" t="n">
-        <v>44133</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>17</v>
+        <v>44129</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>30</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -480,13 +475,13 @@
         <v>5</v>
       </c>
       <c r="B16" s="4" t="n">
-        <v>44133</v>
+        <v>44129</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -494,13 +489,13 @@
         <v>6</v>
       </c>
       <c r="B17" s="4" t="n">
-        <v>44133</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>19</v>
+        <v>44129</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>9</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -508,13 +503,13 @@
         <v>7</v>
       </c>
       <c r="B18" s="4" t="n">
-        <v>44133</v>
+        <v>44129</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -522,13 +517,13 @@
         <v>8</v>
       </c>
       <c r="B19" s="4" t="n">
-        <v>44133</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>20</v>
+        <v>44129</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>3</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -536,13 +531,13 @@
         <v>9</v>
       </c>
       <c r="B20" s="4" t="n">
-        <v>44133</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>21</v>
+        <v>44129</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -550,13 +545,10 @@
         <v>10</v>
       </c>
       <c r="B21" s="4" t="n">
-        <v>44133</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>22</v>
+        <v>44129</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -564,13 +556,13 @@
         <v>11</v>
       </c>
       <c r="B22" s="4" t="n">
-        <v>44133</v>
+        <v>44129</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -578,13 +570,13 @@
         <v>12</v>
       </c>
       <c r="B23" s="4" t="n">
-        <v>44133</v>
+        <v>44129</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -592,13 +584,13 @@
         <v>13</v>
       </c>
       <c r="B24" s="4" t="n">
-        <v>44133</v>
+        <v>44129</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -606,13 +598,10 @@
         <v>14</v>
       </c>
       <c r="B25" s="4" t="n">
-        <v>44133</v>
-      </c>
-      <c r="C25" s="0" t="s">
-        <v>26</v>
+        <v>44129</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -620,13 +609,13 @@
         <v>15</v>
       </c>
       <c r="B26" s="4" t="n">
-        <v>44133</v>
-      </c>
-      <c r="C26" s="0" t="s">
-        <v>27</v>
+        <v>44129</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>6</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -634,80 +623,80 @@
         <v>16</v>
       </c>
       <c r="B27" s="4" t="n">
-        <v>44133</v>
-      </c>
-      <c r="C27" s="0" t="s">
-        <v>28</v>
+        <v>44129</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B28" s="4" t="n">
-        <v>44143</v>
+        <v>44133</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B29" s="4" t="n">
-        <v>44143</v>
+        <v>44133</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B30" s="4" t="n">
-        <v>44143</v>
+        <v>44133</v>
       </c>
       <c r="C30" s="0" t="s">
         <v>23</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B31" s="4" t="n">
-        <v>44143</v>
+        <v>44133</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B32" s="4" t="n">
         <v>44143</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D32" s="0" t="n">
         <v>600</v>
@@ -715,13 +704,13 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B33" s="4" t="n">
         <v>44143</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D33" s="0" t="n">
         <v>600</v>
@@ -729,13 +718,13 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B34" s="4" t="n">
         <v>44143</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D34" s="0" t="n">
         <v>600</v>
@@ -743,13 +732,13 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B35" s="4" t="n">
         <v>44143</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D35" s="0" t="n">
         <v>600</v>
@@ -757,13 +746,13 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B36" s="4" t="n">
         <v>44143</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D36" s="0" t="n">
         <v>600</v>
@@ -771,13 +760,13 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B37" s="4" t="n">
         <v>44143</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D37" s="0" t="n">
         <v>600</v>
@@ -785,13 +774,13 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B38" s="4" t="n">
         <v>44143</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D38" s="0" t="n">
         <v>600</v>
@@ -799,13 +788,13 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B39" s="4" t="n">
         <v>44143</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D39" s="0" t="n">
         <v>600</v>
@@ -813,15 +802,71 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" s="4" t="n">
+        <v>44143</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41" s="4" t="n">
+        <v>44143</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D41" s="0" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B42" s="4" t="n">
+        <v>44143</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D42" s="0" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B43" s="4" t="n">
+        <v>44143</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D43" s="0" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B40" s="4" t="n">
-        <v>44143</v>
-      </c>
-      <c r="C40" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D40" s="0" t="n">
+      <c r="B44" s="4" t="n">
+        <v>44143</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D44" s="0" t="n">
         <v>600</v>
       </c>
     </row>
